--- a/非受控文档/过程文档/图/工作任务的分解.xlsx
+++ b/非受控文档/过程文档/图/工作任务的分解.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C6DE0-F998-4B55-8370-C055A353AB64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DBD56-45C8-47E0-AC67-0F1E8C4BBD0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
-  <si>
-    <t>需求获取</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+  <si>
+    <t>项目前期准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,7 +42,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写项目视图与范围</t>
+    <t>陈妍蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所需软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次小组会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑巧雁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbs+obs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理系统（第二次小组会议）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈遵义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA计划-初步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求获取活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次小组会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目视图与范围v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,10 +142,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第四次小组会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户群分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目视图与范围v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML概述ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋翼虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML工具PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目干系人文档规范化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组第五次会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML基础1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选择产品代表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>召开应用程序开发联系会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分析用户工作流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +222,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创建开发原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分析可行性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,11 +242,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用质量功能调配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求规格说明</t>
+    <t>应用质量工程调配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,11 +266,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常见需求跟踪能力矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求规格审核</t>
+    <t>创建需求跟踪能力矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,7 +290,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求管理过程</t>
+    <t>需求管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,7 +310,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写需求文档的基准版本和控制版本</t>
+    <t>编写需求文档的基本版本和控制版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,35 +330,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈妍蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑巧雁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈遵义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋翼虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建开发原型</t>
+    <t>项目总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写总结报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陈妍蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,321 +678,530 @@
     <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/非受控文档/过程文档/图/工作任务的分解.xlsx
+++ b/非受控文档/过程文档/图/工作任务的分解.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DBD56-45C8-47E0-AC67-0F1E8C4BBD0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BB972-1354-4879-B6BF-A7CE6960760B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>项目前期准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,50 @@
   </si>
   <si>
     <t xml:space="preserve"> 陈妍蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA计划-初步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户代表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目干系人文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,8 +426,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,9 +723,10 @@
     <col min="2" max="2" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -688,8 +736,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -700,15 +754,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -716,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -724,23 +784,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -750,16 +822,25 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -767,31 +848,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -801,24 +900,42 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -829,15 +946,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -845,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -853,15 +973,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -869,23 +995,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -893,15 +1028,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -909,15 +1047,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -925,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -933,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -941,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>43</v>
       </c>

--- a/非受控文档/过程文档/图/工作任务的分解.xlsx
+++ b/非受控文档/过程文档/图/工作任务的分解.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BB972-1354-4879-B6BF-A7CE6960760B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0CA7F7-DFCF-4B21-BDE0-B08BB302DDDA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>项目前期准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,70 @@
   </si>
   <si>
     <t>项目干系人文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML基础1PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妍蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与项目下达者进行第一次访谈-失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与项目下达者进行第一次访谈0成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目视图与范围v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组第六次会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML基础2-界面原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈遵义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML基础2-界面原型PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程计划v0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组第七次会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组第八次会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1030,292 +1094,324 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="1">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1323,28 +1419,111 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C72" t="s">
         <v>79</v>
       </c>
     </row>
